--- a/Times.xlsx
+++ b/Times.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyran\Documents\Fatec-Estrutura-de-dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\OneDrive - Etec Centro Paula Souza\Documents\Fatec-Estrutura-de-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114FC418-0B04-4D64-B947-3336F0C385ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{021D815C-3E1B-4EE4-850E-CA407B79129D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Bubble</t>
   </si>
@@ -58,7 +57,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,19 +573,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A35C4F-55E7-4F26-A4EF-5DEEB0F9ED3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="360" zoomScaleNormal="360" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>1000</v>
@@ -605,7 +607,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -625,47 +627,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.14199999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>9.3520000000000003</v>
-      </c>
-      <c r="E3" s="2">
-        <v>853.745</v>
+        <v>5.2910000000000004</v>
+      </c>
+      <c r="E3" s="11">
+        <v>533.63800000000003</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>5.2910000000000004</v>
-      </c>
-      <c r="E4" s="11">
-        <v>533638</v>
+        <v>9.3520000000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <v>853.745</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -678,14 +680,14 @@
       <c r="D5" s="2">
         <v>29.189</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
+      <c r="E5" s="2">
+        <v>2096.308</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>

--- a/Times.xlsx
+++ b/Times.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Bubble</t>
   </si>
@@ -50,16 +50,13 @@
   <si>
     <t>Quick</t>
   </si>
-  <si>
-    <t>mt tempo</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -225,12 +222,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,19 +239,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -275,6 +269,1314 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo de execução</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> dos algoritimos de sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.691000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3496.7730000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFFF-46DD-873E-BC3A357021BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>533.63800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFFF-46DD-873E-BC3A357021BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>853.745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFFF-46DD-873E-BC3A357021BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2096.308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CFFF-46DD-873E-BC3A357021BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225.79900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CFFF-46DD-873E-BC3A357021BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="156496832"/>
+        <c:axId val="156500160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156496832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156500160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156500160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156496832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43294</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112567</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,119 +1878,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="360" zoomScaleNormal="360" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3">
         <v>1000</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <f>B1*10</f>
         <v>10000</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <f t="shared" ref="D1:F1" si="0">C1*10</f>
         <v>100000</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>3.8E-3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>0.35499999999999998</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>38.691000000000003</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E2" s="7">
+        <v>3496.7730000000001</v>
+      </c>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>1E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>5.2910000000000004</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>533.63800000000003</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>9.3520000000000003</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>853.745</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>0.30599999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>29.189</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>2096.308</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -709,5 +2007,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>